--- a/medicine/Psychotrope/Société_de_transformation_viticole/Société_de_transformation_viticole.xlsx
+++ b/medicine/Psychotrope/Société_de_transformation_viticole/Société_de_transformation_viticole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_transformation_viticole</t>
+          <t>Société_de_transformation_viticole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ex Office national de commercialisation des produits vitivinicoles (ONCV) est une entreprise algérienne créée en 1968 et qui a évolué en société par actions à partir de 1990. En 2017 l'ONCV devient la Société de transformation viticole (Sotravit), en raison de la mise en œuvre de la nouvelle stratégie de cette entreprise[2],[3].
+L'ex Office national de commercialisation des produits vitivinicoles (ONCV) est une entreprise algérienne créée en 1968 et qui a évolué en société par actions à partir de 1990. En 2017 l'ONCV devient la Société de transformation viticole (Sotravit), en raison de la mise en œuvre de la nouvelle stratégie de cette entreprise,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_transformation_viticole</t>
+          <t>Société_de_transformation_viticole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec son propre vignoble de 5 500 ha et un réseau de 3 000 viticulteurs partenaires, l'entreprise produit 500 000 hl/an de vin en moyenne. La SOTRAVIT dispose de 132 caves de vinification d'une capacité totale de 3 000 000 d'hl, de 11 chais portuaires d'une capacité de 960 000 hl et de 8 centres de conditionnement d'une capacité de 80 000 000 bouteilles/an[4].
-Sa position de leader de la filière vitivinicole en Algérie se réaffirmera davantage avec l'extension de son propre vignoble à hauteur de 15 000 ha à l'horizon 2007[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec son propre vignoble de 5 500 ha et un réseau de 3 000 viticulteurs partenaires, l'entreprise produit 500 000 hl/an de vin en moyenne. La SOTRAVIT dispose de 132 caves de vinification d'une capacité totale de 3 000 000 d'hl, de 11 chais portuaires d'une capacité de 960 000 hl et de 8 centres de conditionnement d'une capacité de 80 000 000 bouteilles/an.
+Sa position de leader de la filière vitivinicole en Algérie se réaffirmera davantage avec l'extension de son propre vignoble à hauteur de 15 000 ha à l'horizon 2007.
 La SOTRAVIT développe de nouveaux programmes d'investissement sur deux autres créneaux porteurs du secteur agroalimentaire : les dattes et l'oléiculture.
-Son capital social est de 7,5 millions de dollars, le chiffre d'affaires s'élève à 106 millions de dollars dont 20 % à l'exportation[4].
-L'entreprise emploie environ 1 500 salariés[4].
+Son capital social est de 7,5 millions de dollars, le chiffre d'affaires s'élève à 106 millions de dollars dont 20 % à l'exportation.
+L'entreprise emploie environ 1 500 salariés.
 </t>
         </is>
       </c>
